--- a/prest.xlsx
+++ b/prest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="234">
   <si>
     <t>Lat</t>
   </si>
@@ -31,36 +31,36 @@
     <t>DS_TIPO_PRESTADOR</t>
   </si>
   <si>
+    <t>Rua João Augusto Morais, 240 - Vila Doutor Eiras - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida Penha de França, 593 - Penha de França - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua dos Pinheiros, 1392 - Pinheiros - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Voluntários da Pátria, 1801 - Santana - São Paulo</t>
+  </si>
+  <si>
+    <t>Praça Sílvio Romero, 150 - Cidade Mãe do Céu - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Fidêncio Ramos  (4 Andar), 160 - Vila Olímpia - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida São Luís, 218 - República - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Domingos de Morais, 2104 - Vila Mariana - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Nossa Senhora da Lapa, 439 - Lapa - São Paulo</t>
+  </si>
+  <si>
     <t>Rua Barão do Rio Branco, 373 - Santo Amaro - São Paulo</t>
   </si>
   <si>
-    <t>Rua Fidêncio Ramos  (4 Andar), 160 - Vila Olímpia - São Paulo</t>
-  </si>
-  <si>
-    <t>Rua Domingos de Morais, 2104 - Vila Mariana - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida Penha de França, 593 - Penha de França - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida São Luís, 218 - República - São Paulo</t>
-  </si>
-  <si>
-    <t>Praça Sílvio Romero, 150 - Cidade Mãe do Céu - São Paulo</t>
-  </si>
-  <si>
-    <t>Rua João Augusto Morais, 240 - Vila Doutor Eiras - São Paulo</t>
-  </si>
-  <si>
-    <t>Rua Nossa Senhora da Lapa, 439 - Lapa - São Paulo</t>
-  </si>
-  <si>
-    <t>Rua dos Pinheiros, 1392 - Pinheiros - São Paulo</t>
-  </si>
-  <si>
-    <t>Rua Voluntários da Pátria, 1801 - Santana - São Paulo</t>
-  </si>
-  <si>
     <t>Rua São Carlos do Pinhal, 139 - Bela Vista - São Paulo</t>
   </si>
   <si>
@@ -130,24 +130,27 @@
     <t>Rua Voluntários da Pátria, 2669 - Santana - São Paulo</t>
   </si>
   <si>
+    <t>Rua Américo Salvador Novelli  (Lj 01), 154 - Itaquera - São Paulo</t>
+  </si>
+  <si>
+    <t>Alameda dos Nhambiquaras, 492 - Indianópolis - São Paulo</t>
+  </si>
+  <si>
     <t>Avenida Brigadeiro Luís Antônio, 4869 - Jardim Paulista - São Paulo</t>
   </si>
   <si>
-    <t>Rua Américo Salvador Novelli  (Lj 01), 154 - Itaquera - São Paulo</t>
+    <t>Rua Emílio Mallet, 317 - Vila Gomes Cardim - São Paulo</t>
   </si>
   <si>
     <t>Avenida Marquês de São Vicente, 2219 - Várzea da Barra Funda - São Paulo</t>
   </si>
   <si>
+    <t>Rua Itapeva  (4 Andar), 240 - Bela Vista - São Paulo</t>
+  </si>
+  <si>
     <t>Rua Enxovia  (23 Andar), 472 - Vila São Francisco (Zona Sul) - São Paulo</t>
   </si>
   <si>
-    <t>Rua Itapeva  (4 Andar), 240 - Bela Vista - São Paulo</t>
-  </si>
-  <si>
-    <t>Rua Emílio Mallet, 317 - Vila Gomes Cardim - São Paulo</t>
-  </si>
-  <si>
     <t>Rua Vergueiro, 17 - Liberdade - São Paulo</t>
   </si>
   <si>
@@ -160,30 +163,24 @@
     <t>Avenida Tiradentes, 1015 - Jardim Bom Clima - Guarulhos</t>
   </si>
   <si>
-    <t>Avenida Bosque da Saúde, 1926 - Saúde - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida dos Autonomistas, 2502 - Centro - Osasco</t>
-  </si>
-  <si>
-    <t>Rua Doutor Edson de Melo, 357 - Vila Maria Alta - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida Pereira Barreto, 846 - Baeta Neves - São Bernardo do Campo</t>
-  </si>
-  <si>
     <t>Avenida Lucas Nogueira Garcez, 400 - Centro - São Bernardo do Campo</t>
   </si>
   <si>
-    <t>Rua João Santucci, 270 - Vila Santa Luzia - Taboão da Serra</t>
-  </si>
-  <si>
     <t>Rua Presidente Prudente, 267 - Jardim São Paulo - Guarulhos</t>
   </si>
   <si>
     <t>Rua Nossa Senhora Mãe dos Homens, 353 - Vila Progresso - Guarulhos</t>
   </si>
   <si>
+    <t>Rua das Perobas, 465 - Vila Parque Jabaquara - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida Nossa Senhora do Sabará, 2187 - Vila Santana - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida Santo Amaro, 5662 - Santo Amaro - São Paulo</t>
+  </si>
+  <si>
     <t>Rua Barão de Duprat, 332 - Santo Amaro - São Paulo</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
     <t>Avenida de Pinedo, 85 - Socorro - São Paulo</t>
   </si>
   <si>
+    <t>Avenida Dona Belmira Marin, 1275 - Parque Brasil - São Paulo</t>
+  </si>
+  <si>
     <t>Avenida Pereira Barreto, 42 - Paraíso - Santo André</t>
   </si>
   <si>
@@ -208,6 +208,9 @@
     <t>Estrada do M'Boi Mirim, 1375 - Jardim das Flores - São Paulo</t>
   </si>
   <si>
+    <t>Avenida Santa Catarina, 1489 - Vila Mascote - São Paulo</t>
+  </si>
+  <si>
     <t>Rua Catão, 301 - Vila Romana - São Paulo</t>
   </si>
   <si>
@@ -244,6 +247,102 @@
     <t>Praça Padroeira do Brasil, 211 - Centro - Osasco</t>
   </si>
   <si>
+    <t>Rodovia Regis Bittencourt - do Km 271,002 ao Km 272,001 (Loja S-09), S/N - Cidade Intercap - Taboão da Serra</t>
+  </si>
+  <si>
+    <t>Avenida Itaberaba, 4980 - Itaberaba - São Paulo</t>
+  </si>
+  <si>
+    <t>Estrada Presidente Juscelino Kubitschek de Oliveira, 5165 - Jardim Albertina - Guarulhos</t>
+  </si>
+  <si>
+    <t>Ladeira Velha, 25 - Freguesia do Ó - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida Celso Garcia, 3944 - Tatuapé - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida Paes de Barros, 1220 - Mooca - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Orfanato, 33 - Vila Prudente - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida do Oratório, 4147 - Jardim Guairaca - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Domingos Agostim, 91 - Cidade Mãe do Céu - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Euclides Pacheco, 424 - Vila Gomes Cardim - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida Marechal Tito, 82 - Itaim Paulista - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida Guilherme Giorgi, 1889 - Vila Carrão - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida Conselheiro Carrão, 1865 - Vila Carrão - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida Waldemar Carlos Pereira, 133 - Vila Talarico - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Caquito, 143 - Vila São Geraldo - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Doutor Oscar Egydio de Araújo, 4 - Jardim Silva Teles - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Flores do Piauí, 131 - Itaquera - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida Aricanduva, 5555 - Vila Aricanduva - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida Amador Bueno da Veiga, 1793 - Penha de França - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida Águia de Haia, 1751 - Parque Paineiras - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida Sapopemba, 7621 - Jardim Rodolfo Pirani - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida São Miguel, 4162 - Vila Rio Branco - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Gaspar Aranha, 52 - Lajeado - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida Mateo Bei, 2078 - São Mateus - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Domingos de Morais, 388 - Vila Mariana - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida Bernardino de Campos, 292 - Paraíso - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida do Cursino, 1590 - Saúde - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Hipócrates, 1590 - Jardim da Saúde - São Paulo</t>
+  </si>
+  <si>
+    <t>Alameda dos Jurupis, 1761 - Indianópolis - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Labatut, 523 - Ipiranga - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida Marginal Direita Anchieta  (Box 06), 3398 - Jardim Santa Cruz (Sacomã) - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida Engenheiro Armando de Arruda Pereira, 1175 - Jabaquara - São Paulo</t>
+  </si>
+  <si>
     <t>Rodovia Raposo Tavares, Km 14,5 Shopping Raposo (Lj 2008 - Piso), S/N - Jardim Boa Vista - São Paulo</t>
   </si>
   <si>
@@ -325,120 +424,18 @@
     <t>Avenida Professor Celestino Bourroul, 525 - Limão - São Paulo</t>
   </si>
   <si>
-    <t>Avenida Itaberaba, 4980 - Itaberaba - São Paulo</t>
-  </si>
-  <si>
-    <t>Estrada Presidente Juscelino Kubitschek de Oliveira, 5165 - Jardim Albertina - Guarulhos</t>
-  </si>
-  <si>
-    <t>Ladeira Velha, 25 - Freguesia do Ó - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida Celso Garcia, 3944 - Tatuapé - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida Paes de Barros, 1220 - Mooca - São Paulo</t>
-  </si>
-  <si>
-    <t>Rua Orfanato, 33 - Vila Prudente - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida do Oratório, 4147 - Jardim Guairaca - São Paulo</t>
-  </si>
-  <si>
-    <t>Rua Domingos Agostim, 91 - Cidade Mãe do Céu - São Paulo</t>
-  </si>
-  <si>
-    <t>Rua Euclides Pacheco, 424 - Vila Gomes Cardim - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida Marechal Tito, 82 - Itaim Paulista - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida Guilherme Giorgi, 1889 - Vila Carrão - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida Conselheiro Carrão, 1865 - Vila Carrão - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida Waldemar Carlos Pereira, 133 - Vila Talarico - São Paulo</t>
-  </si>
-  <si>
-    <t>Rua Caquito, 143 - Vila São Geraldo - São Paulo</t>
-  </si>
-  <si>
-    <t>Rua Doutor Oscar Egydio de Araújo, 4 - Jardim Silva Teles - São Paulo</t>
-  </si>
-  <si>
-    <t>Rua Flores do Piauí, 131 - Itaquera - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida Aricanduva, 5555 - Vila Aricanduva - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida Amador Bueno da Veiga, 1793 - Penha de França - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida Águia de Haia, 1751 - Parque Paineiras - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida Sapopemba, 7621 - Jardim Rodolfo Pirani - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida São Miguel, 4162 - Vila Rio Branco - São Paulo</t>
-  </si>
-  <si>
     <t>Rua Belmiro Valverde, 52 - Lajeado - São Paulo</t>
   </si>
   <si>
-    <t>Avenida Mateo Bei, 2078 - São Mateus - São Paulo</t>
-  </si>
-  <si>
-    <t>Rua Domingos de Morais, 388 - Vila Mariana - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida Bernardino de Campos, 292 - Paraíso - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida do Cursino, 1590 - Saúde - São Paulo</t>
-  </si>
-  <si>
-    <t>Rua Hipócrates, 1590 - Jardim da Saúde - São Paulo</t>
-  </si>
-  <si>
-    <t>Alameda dos Jurupis, 1761 - Indianópolis - São Paulo</t>
-  </si>
-  <si>
-    <t>Rua Labatut, 523 - Ipiranga - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida Marginal Direita Anchieta  (Box 06), 3398 - Jardim Santa Cruz (Sacomã) - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida Engenheiro Armando de Arruda Pereira, 1175 - Jabaquara - São Paulo</t>
-  </si>
-  <si>
-    <t>Rua das Perobas, 465 - Vila Parque Jabaquara - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida Santa Catarina, 1489 - Vila Mascote - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida Nossa Senhora do Sabará, 2187 - Vila Santana - São Paulo</t>
-  </si>
-  <si>
-    <t>Avenida Santo Amaro, 5662 - Santo Amaro - São Paulo</t>
+    <t>Rua do Rocio  (Cj 202), 423 - Vila Olímpia - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Pará  (Cj 92), 50 - Consolação - São Paulo</t>
   </si>
   <si>
     <t>Rua Apucarana, 272 - Tatuapé - São Paulo</t>
   </si>
   <si>
-    <t>Rua do Rocio  (Cj 202), 423 - Vila Olímpia - São Paulo</t>
-  </si>
-  <si>
-    <t>Rua Pará  (Cj 92), 50 - Consolação - São Paulo</t>
-  </si>
-  <si>
     <t>Rua Jesuíno Arruda, 676 - Itaim Bibi - São Paulo</t>
   </si>
   <si>
@@ -457,15 +454,15 @@
     <t>Rua Regente Feijó, 199 - Vila Assunção - Santo André</t>
   </si>
   <si>
+    <t>Rua Cáspio, 232 - Jardim do Mar - São Bernardo do Campo</t>
+  </si>
+  <si>
+    <t>Rua Banda, 58 - Jardim do Mar - São Bernardo do Campo</t>
+  </si>
+  <si>
     <t>Alameda Campestre, 328 - Campestre - Santo André</t>
   </si>
   <si>
-    <t>Rua Cáspio, 232 - Jardim do Mar - São Bernardo do Campo</t>
-  </si>
-  <si>
-    <t>Rua Banda, 58 - Jardim do Mar - São Bernardo do Campo</t>
-  </si>
-  <si>
     <t>Rua Arizona, 1349 - Cidade Monções - São Paulo</t>
   </si>
   <si>
@@ -487,25 +484,43 @@
     <t>Rua Batuíra (Jd Brasilândia), 400 - Assunção - São Bernardo do Campo</t>
   </si>
   <si>
+    <t>Rua Maracaju, 13 - Vila Mariana - São Paulo</t>
+  </si>
+  <si>
     <t>Rua Correia Dias, 113 - Paraíso - São Paulo</t>
   </si>
   <si>
-    <t>Rua Maracaju, 13 - Vila Mariana - São Paulo</t>
-  </si>
-  <si>
     <t>Rua Cubatão 1190 - Vila Mariana - São Paulo</t>
   </si>
   <si>
+    <t>Rua Domingos de Morais, 2187 - Vila Mariana - São Paulo</t>
+  </si>
+  <si>
     <t>Rua Padre Antônio Tomás, 219 - Água Branca - São Paulo</t>
   </si>
   <si>
-    <t>Avenida das Nações Unidas  (Cj 101), 18801 - Jardim Dom Bosco - São Paulo</t>
+    <t>Rua Antônio Rabello, 222 - Jardim Aliança - Guarulhos</t>
   </si>
   <si>
     <t>Rua Serra de Botucatu, 1195 - Vila Gomes Cardim - São Paulo</t>
   </si>
   <si>
-    <t>Rua Santa Mônica, 864 - Recreio Primavera - Itapecerica da Serra</t>
+    <t>Rua Cincinato Braga, 340 - Bela Vista - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Pedro de Toledo, 572 - Vila Clementino - São Paulo</t>
+  </si>
+  <si>
+    <t>Avenida Jabaquara, 1771 - Mirandópolis - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Borges Lagoa, 913 - Vila Clementino - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Voluntários da Pátria, 2786 - Santana - São Paulo</t>
+  </si>
+  <si>
+    <t>Rua Eloy Cândido Lopes, 109 - Centro - Osasco</t>
   </si>
   <si>
     <t>Labi Exames</t>
@@ -589,24 +604,9 @@
     <t>Hospital Guarulhos</t>
   </si>
   <si>
-    <t>Hospital Bosque da Saúde</t>
-  </si>
-  <si>
-    <t>Hospital Cruzeiro do Sul</t>
-  </si>
-  <si>
-    <t>Hospital e Maternidade N. Sra. do Rosário</t>
-  </si>
-  <si>
-    <t>Notre Care</t>
-  </si>
-  <si>
     <t>Hospital São Bernardo</t>
   </si>
   <si>
-    <t>Hospital Family</t>
-  </si>
-  <si>
     <t>Deliberato</t>
   </si>
   <si>
@@ -628,6 +628,9 @@
     <t xml:space="preserve">Lavoisier-Imagem - São Paulo </t>
   </si>
   <si>
+    <t>Lavoisier-Imagem - Shopping Taboão</t>
+  </si>
+  <si>
     <t>Visclin Oftalmologia</t>
   </si>
   <si>
@@ -673,16 +676,31 @@
     <t>Hospital Santa Rita</t>
   </si>
   <si>
+    <t>Crc Inspira</t>
+  </si>
+  <si>
     <t>Renova Psi</t>
   </si>
   <si>
-    <t>Medlight Care</t>
-  </si>
-  <si>
     <t>Freixo Clínica</t>
   </si>
   <si>
-    <t>Hospital Santa Monica</t>
+    <t>Dr Eduardo Jorge - Ginecologia</t>
+  </si>
+  <si>
+    <t>Hospital Graacc - Instituto de Oncologia Pediatrica (Iop)</t>
+  </si>
+  <si>
+    <t>Terapeutica Moraes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fórmula Serviços Medicos </t>
+  </si>
+  <si>
+    <t>Hsanp Hospital</t>
+  </si>
+  <si>
+    <t>Clínica Infantil  Dr. Ademar Gitsuo Tagawa S/C Ltda</t>
   </si>
   <si>
     <t>Laboratório</t>
@@ -1055,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E240"/>
+  <dimension ref="A1:E247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1080,172 +1098,172 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>-23.6519705</v>
+        <v>-23.4961412</v>
       </c>
       <c r="B2">
-        <v>-46.7089315</v>
+        <v>-46.4402628</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>-23.5941196</v>
+        <v>-23.5215282</v>
       </c>
       <c r="B3">
-        <v>-46.6836915</v>
+        <v>-46.5469649</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>-23.5945862</v>
+        <v>-23.567866</v>
       </c>
       <c r="B4">
-        <v>-46.6368919</v>
+        <v>-46.6910875</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>-23.5215282</v>
+        <v>-23.5044587</v>
       </c>
       <c r="B5">
-        <v>-46.5469649</v>
+        <v>-46.6265839</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>-23.5469564</v>
+        <v>-23.5461222</v>
       </c>
       <c r="B6">
-        <v>-46.6430908</v>
+        <v>-46.5736768</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>-23.5461222</v>
+        <v>-23.5941196</v>
       </c>
       <c r="B7">
-        <v>-46.5736768</v>
+        <v>-46.6836915</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>-23.4961412</v>
+        <v>-23.5469564</v>
       </c>
       <c r="B8">
-        <v>-46.4402628</v>
+        <v>-46.6430908</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>-23.5233036</v>
+        <v>-23.5945862</v>
       </c>
       <c r="B9">
-        <v>-46.7043832</v>
+        <v>-46.6368919</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>-23.567866</v>
+        <v>-23.5233036</v>
       </c>
       <c r="B10">
-        <v>-46.6910875</v>
+        <v>-46.7043832</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>-23.5044587</v>
+        <v>-23.6519705</v>
       </c>
       <c r="B11">
-        <v>-46.6265839</v>
+        <v>-46.7089315</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E11" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1259,10 +1277,10 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E12" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1276,10 +1294,10 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1293,10 +1311,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E14" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1310,10 +1328,10 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1327,10 +1345,10 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1344,10 +1362,10 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E17" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1361,10 +1379,10 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E18" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1378,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E19" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1395,10 +1413,10 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E20" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1412,10 +1430,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E21" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1429,10 +1447,10 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E22" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1446,10 +1464,10 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E23" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1463,10 +1481,10 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E24" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1480,10 +1498,10 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E25" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1497,10 +1515,10 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E26" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1514,10 +1532,10 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1531,10 +1549,10 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E28" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1548,10 +1566,10 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E29" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1565,10 +1583,10 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E30" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1582,10 +1600,10 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E31" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1599,10 +1617,10 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E32" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1616,10 +1634,10 @@
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E33" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1633,324 +1651,324 @@
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E34" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>-23.5831632</v>
+        <v>-23.5406141</v>
       </c>
       <c r="B35">
-        <v>-46.6680232</v>
+        <v>-46.4556</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E35" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>-23.5406141</v>
+        <v>-23.6040387</v>
       </c>
       <c r="B36">
-        <v>-46.4556</v>
+        <v>-46.6568913</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E36" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>-23.5189259</v>
+        <v>-23.5831632</v>
       </c>
       <c r="B37">
-        <v>-46.6798286</v>
+        <v>-46.6680232</v>
       </c>
       <c r="C37" t="s">
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E37" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>-23.6308214</v>
+        <v>-23.547313</v>
       </c>
       <c r="B38">
-        <v>-46.6977699</v>
+        <v>-46.570779</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E38" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>-23.5574031</v>
+        <v>-23.5189259</v>
       </c>
       <c r="B39">
-        <v>-46.6498473</v>
+        <v>-46.6798286</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E39" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>-23.547313</v>
+        <v>-23.5574031</v>
       </c>
       <c r="B40">
-        <v>-46.570779</v>
+        <v>-46.6498473</v>
       </c>
       <c r="C40" t="s">
         <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E40" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>-23.5625013</v>
+        <v>-23.6308214</v>
       </c>
       <c r="B41">
-        <v>-46.6385071</v>
+        <v>-46.6977699</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E41" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>-23.6109536</v>
+        <v>-23.5625013</v>
       </c>
       <c r="B42">
-        <v>-46.7591281</v>
+        <v>-46.6385071</v>
       </c>
       <c r="C42" t="s">
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E42" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>-23.6934356</v>
+        <v>-23.6109536</v>
       </c>
       <c r="B43">
-        <v>-46.5544653</v>
+        <v>-46.7591281</v>
       </c>
       <c r="C43" t="s">
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E43" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>-23.4650606</v>
+        <v>-23.6934356</v>
       </c>
       <c r="B44">
-        <v>-46.5328489</v>
+        <v>-46.5544653</v>
       </c>
       <c r="C44" t="s">
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E44" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>-23.6134137</v>
+        <v>-23.4650606</v>
       </c>
       <c r="B45">
-        <v>-46.6202151</v>
+        <v>-46.5328489</v>
       </c>
       <c r="C45" t="s">
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E45" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>-23.5374582</v>
+        <v>-23.6929249</v>
       </c>
       <c r="B46">
-        <v>-46.776911</v>
+        <v>-46.5536938</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E46" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>-23.5116733</v>
+        <v>-23.4694395</v>
       </c>
       <c r="B47">
-        <v>-46.5838928</v>
+        <v>-46.5242476</v>
       </c>
       <c r="C47" t="s">
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>-23.6907395</v>
+        <v>-23.4613061</v>
       </c>
       <c r="B48">
-        <v>-46.5479618</v>
+        <v>-46.5359148</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E48" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>-23.6929249</v>
+        <v>-23.6444363</v>
       </c>
       <c r="B49">
-        <v>-46.5536938</v>
+        <v>-46.6421876</v>
       </c>
       <c r="C49" t="s">
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E49" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>-23.605725</v>
+        <v>-23.6735207</v>
       </c>
       <c r="B50">
-        <v>-46.75052</v>
+        <v>-46.6862525</v>
       </c>
       <c r="C50" t="s">
         <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>-23.4694395</v>
+        <v>-23.6316846</v>
       </c>
       <c r="B51">
-        <v>-46.5242476</v>
+        <v>-46.6919838</v>
       </c>
       <c r="C51" t="s">
         <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E51" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>-23.4613061</v>
+        <v>-23.655148</v>
       </c>
       <c r="B52">
-        <v>-46.5359148</v>
+        <v>-46.7023442</v>
       </c>
       <c r="C52" t="s">
         <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E52" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>-23.655148</v>
+        <v>-23.6341601</v>
       </c>
       <c r="B53">
-        <v>-46.7023442</v>
+        <v>-46.6928804</v>
       </c>
       <c r="C53" t="s">
         <v>56</v>
@@ -1959,15 +1977,15 @@
         <v>198</v>
       </c>
       <c r="E53" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>-23.6341601</v>
+        <v>-23.6461831</v>
       </c>
       <c r="B54">
-        <v>-46.6928804</v>
+        <v>-46.7070045</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
@@ -1976,15 +1994,15 @@
         <v>198</v>
       </c>
       <c r="E54" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>-23.6461831</v>
+        <v>-23.6738558</v>
       </c>
       <c r="B55">
-        <v>-46.7070045</v>
+        <v>-46.6775125</v>
       </c>
       <c r="C55" t="s">
         <v>58</v>
@@ -1993,15 +2011,15 @@
         <v>198</v>
       </c>
       <c r="E55" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>-23.6738558</v>
+        <v>-23.6664271</v>
       </c>
       <c r="B56">
-        <v>-46.6775125</v>
+        <v>-46.7121309</v>
       </c>
       <c r="C56" t="s">
         <v>59</v>
@@ -2010,15 +2028,15 @@
         <v>198</v>
       </c>
       <c r="E56" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>-23.6664271</v>
+        <v>-23.7412274</v>
       </c>
       <c r="B57">
-        <v>-46.7121309</v>
+        <v>-46.6914436</v>
       </c>
       <c r="C57" t="s">
         <v>60</v>
@@ -2027,7 +2045,7 @@
         <v>198</v>
       </c>
       <c r="E57" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2044,7 +2062,7 @@
         <v>198</v>
       </c>
       <c r="E58" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2061,7 +2079,7 @@
         <v>198</v>
       </c>
       <c r="E59" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2078,15 +2096,15 @@
         <v>198</v>
       </c>
       <c r="E60" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>-23.5235294</v>
+        <v>-23.6477383</v>
       </c>
       <c r="B61">
-        <v>-46.7001738</v>
+        <v>-46.6622636</v>
       </c>
       <c r="C61" t="s">
         <v>64</v>
@@ -2095,15 +2113,15 @@
         <v>198</v>
       </c>
       <c r="E61" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>-23.5260299</v>
+        <v>-23.5235294</v>
       </c>
       <c r="B62">
-        <v>-46.7082896</v>
+        <v>-46.7001738</v>
       </c>
       <c r="C62" t="s">
         <v>65</v>
@@ -2112,15 +2130,15 @@
         <v>198</v>
       </c>
       <c r="E62" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>-23.6162723</v>
+        <v>-23.5260299</v>
       </c>
       <c r="B63">
-        <v>-46.5598405</v>
+        <v>-46.7082896</v>
       </c>
       <c r="C63" t="s">
         <v>66</v>
@@ -2129,15 +2147,15 @@
         <v>198</v>
       </c>
       <c r="E63" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>-23.4057936</v>
+        <v>-23.6162723</v>
       </c>
       <c r="B64">
-        <v>-46.7583156</v>
+        <v>-46.5598405</v>
       </c>
       <c r="C64" t="s">
         <v>67</v>
@@ -2146,15 +2164,15 @@
         <v>198</v>
       </c>
       <c r="E64" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>-23.7232218</v>
+        <v>-23.4057936</v>
       </c>
       <c r="B65">
-        <v>-46.543195</v>
+        <v>-46.7583156</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -2163,15 +2181,15 @@
         <v>198</v>
       </c>
       <c r="E65" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>-23.5344698</v>
+        <v>-23.7232218</v>
       </c>
       <c r="B66">
-        <v>-46.7278267</v>
+        <v>-46.543195</v>
       </c>
       <c r="C66" t="s">
         <v>69</v>
@@ -2180,15 +2198,15 @@
         <v>198</v>
       </c>
       <c r="E66" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>-23.5834142</v>
+        <v>-23.5344698</v>
       </c>
       <c r="B67">
-        <v>-46.7146841</v>
+        <v>-46.7278267</v>
       </c>
       <c r="C67" t="s">
         <v>70</v>
@@ -2197,15 +2215,15 @@
         <v>198</v>
       </c>
       <c r="E67" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>-23.5690226</v>
+        <v>-23.5834142</v>
       </c>
       <c r="B68">
-        <v>-46.7566166</v>
+        <v>-46.7146841</v>
       </c>
       <c r="C68" t="s">
         <v>71</v>
@@ -2214,15 +2232,15 @@
         <v>198</v>
       </c>
       <c r="E68" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>-23.5632493</v>
+        <v>-23.5690226</v>
       </c>
       <c r="B69">
-        <v>-46.6873681</v>
+        <v>-46.7566166</v>
       </c>
       <c r="C69" t="s">
         <v>72</v>
@@ -2231,15 +2249,15 @@
         <v>198</v>
       </c>
       <c r="E69" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>-23.666006</v>
+        <v>-23.5632493</v>
       </c>
       <c r="B70">
-        <v>-46.7707319</v>
+        <v>-46.6873681</v>
       </c>
       <c r="C70" t="s">
         <v>73</v>
@@ -2248,15 +2266,15 @@
         <v>198</v>
       </c>
       <c r="E70" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>-23.6501566</v>
+        <v>-23.666006</v>
       </c>
       <c r="B71">
-        <v>-46.7558405</v>
+        <v>-46.7707319</v>
       </c>
       <c r="C71" t="s">
         <v>74</v>
@@ -2265,15 +2283,15 @@
         <v>198</v>
       </c>
       <c r="E71" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>-23.5352946</v>
+        <v>-23.6501566</v>
       </c>
       <c r="B72">
-        <v>-46.7736034</v>
+        <v>-46.7558405</v>
       </c>
       <c r="C72" t="s">
         <v>75</v>
@@ -2282,15 +2300,15 @@
         <v>198</v>
       </c>
       <c r="E72" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>-23.588038</v>
+        <v>-23.5352946</v>
       </c>
       <c r="B73">
-        <v>-46.7510425</v>
+        <v>-46.7736034</v>
       </c>
       <c r="C73" t="s">
         <v>76</v>
@@ -2299,15 +2317,15 @@
         <v>198</v>
       </c>
       <c r="E73" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>-23.5292778</v>
+        <v>-23.6141617</v>
       </c>
       <c r="B74">
-        <v>-46.6389243</v>
+        <v>-46.7760983</v>
       </c>
       <c r="C74" t="s">
         <v>77</v>
@@ -2316,15 +2334,15 @@
         <v>198</v>
       </c>
       <c r="E74" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>-23.5519536</v>
+        <v>-23.4744162</v>
       </c>
       <c r="B75">
-        <v>-46.6606904</v>
+        <v>-46.670576</v>
       </c>
       <c r="C75" t="s">
         <v>78</v>
@@ -2333,15 +2351,15 @@
         <v>198</v>
       </c>
       <c r="E75" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>-23.5520356</v>
+        <v>-23.4347341</v>
       </c>
       <c r="B76">
-        <v>-46.6605033</v>
+        <v>-46.405618</v>
       </c>
       <c r="C76" t="s">
         <v>79</v>
@@ -2350,15 +2368,15 @@
         <v>198</v>
       </c>
       <c r="E76" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>-23.5484358</v>
+        <v>-23.5012691</v>
       </c>
       <c r="B77">
-        <v>-46.659487</v>
+        <v>-46.6958522</v>
       </c>
       <c r="C77" t="s">
         <v>80</v>
@@ -2367,15 +2385,15 @@
         <v>198</v>
       </c>
       <c r="E77" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>-23.5413031</v>
+        <v>-23.5357264</v>
       </c>
       <c r="B78">
-        <v>-46.6440579</v>
+        <v>-46.5742253</v>
       </c>
       <c r="C78" t="s">
         <v>81</v>
@@ -2384,15 +2402,15 @@
         <v>198</v>
       </c>
       <c r="E78" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>-23.5541006</v>
+        <v>-23.5652668</v>
       </c>
       <c r="B79">
-        <v>-46.6526293</v>
+        <v>-46.5956924</v>
       </c>
       <c r="C79" t="s">
         <v>82</v>
@@ -2401,15 +2419,15 @@
         <v>198</v>
       </c>
       <c r="E79" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>-23.5647578</v>
+        <v>-23.5810906</v>
       </c>
       <c r="B80">
-        <v>-46.6209725</v>
+        <v>-46.5848873</v>
       </c>
       <c r="C80" t="s">
         <v>83</v>
@@ -2418,15 +2436,15 @@
         <v>198</v>
       </c>
       <c r="E80" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>-23.509423</v>
+        <v>-23.6014662</v>
       </c>
       <c r="B81">
-        <v>-46.6260484</v>
+        <v>-46.5342972</v>
       </c>
       <c r="C81" t="s">
         <v>84</v>
@@ -2435,15 +2453,15 @@
         <v>198</v>
       </c>
       <c r="E81" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>-23.5721239</v>
+        <v>-23.5417077</v>
       </c>
       <c r="B82">
-        <v>-46.689765</v>
+        <v>-46.5766182</v>
       </c>
       <c r="C82" t="s">
         <v>85</v>
@@ -2452,15 +2470,15 @@
         <v>198</v>
       </c>
       <c r="E82" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>-23.5044623</v>
+        <v>-23.548901</v>
       </c>
       <c r="B83">
-        <v>-46.6243259</v>
+        <v>-46.5705699</v>
       </c>
       <c r="C83" t="s">
         <v>86</v>
@@ -2469,15 +2487,15 @@
         <v>198</v>
       </c>
       <c r="E83" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>-23.5159541</v>
+        <v>-23.4927409</v>
       </c>
       <c r="B84">
-        <v>-46.5876006</v>
+        <v>-46.4445206</v>
       </c>
       <c r="C84" t="s">
         <v>87</v>
@@ -2486,15 +2504,15 @@
         <v>198</v>
       </c>
       <c r="E84" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>-23.4628001</v>
+        <v>-23.5626208</v>
       </c>
       <c r="B85">
-        <v>-46.5320736</v>
+        <v>-46.5430248</v>
       </c>
       <c r="C85" t="s">
         <v>88</v>
@@ -2503,15 +2521,15 @@
         <v>198</v>
       </c>
       <c r="E85" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>-23.4571084</v>
+        <v>-23.5458794</v>
       </c>
       <c r="B86">
-        <v>-46.5651325</v>
+        <v>-46.5428382</v>
       </c>
       <c r="C86" t="s">
         <v>89</v>
@@ -2520,15 +2538,15 @@
         <v>198</v>
       </c>
       <c r="E86" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>-23.4668515</v>
+        <v>-23.5415124</v>
       </c>
       <c r="B87">
-        <v>-46.5840526</v>
+        <v>-46.5235419</v>
       </c>
       <c r="C87" t="s">
         <v>90</v>
@@ -2537,15 +2555,15 @@
         <v>198</v>
       </c>
       <c r="E87" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>-23.4780289</v>
+        <v>-23.520942</v>
       </c>
       <c r="B88">
-        <v>-46.6061224</v>
+        <v>-46.545643</v>
       </c>
       <c r="C88" t="s">
         <v>91</v>
@@ -2554,15 +2572,15 @@
         <v>198</v>
       </c>
       <c r="E88" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>-23.4548602</v>
+        <v>-23.4962065</v>
       </c>
       <c r="B89">
-        <v>-46.5336765</v>
+        <v>-46.4047926</v>
       </c>
       <c r="C89" t="s">
         <v>92</v>
@@ -2571,15 +2589,15 @@
         <v>198</v>
       </c>
       <c r="E89" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>-23.5727766</v>
+        <v>-23.5387097</v>
       </c>
       <c r="B90">
-        <v>-46.7079282</v>
+        <v>-46.4548355</v>
       </c>
       <c r="C90" t="s">
         <v>93</v>
@@ -2588,15 +2606,15 @@
         <v>198</v>
       </c>
       <c r="E90" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>-23.59909</v>
+        <v>-23.5622683</v>
       </c>
       <c r="B91">
-        <v>-46.6372072</v>
+        <v>-46.5037973</v>
       </c>
       <c r="C91" t="s">
         <v>94</v>
@@ -2605,15 +2623,15 @@
         <v>198</v>
       </c>
       <c r="E91" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>-23.5904264</v>
+        <v>-23.5212619</v>
       </c>
       <c r="B92">
-        <v>-46.6745894</v>
+        <v>-46.528483</v>
       </c>
       <c r="C92" t="s">
         <v>95</v>
@@ -2622,15 +2640,15 @@
         <v>198</v>
       </c>
       <c r="E92" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>-23.5255396</v>
+        <v>-23.5305035</v>
       </c>
       <c r="B93">
-        <v>-46.7087048</v>
+        <v>-46.4740911</v>
       </c>
       <c r="C93" t="s">
         <v>96</v>
@@ -2639,15 +2657,15 @@
         <v>198</v>
       </c>
       <c r="E93" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>-23.5100796</v>
+        <v>-23.5948399</v>
       </c>
       <c r="B94">
-        <v>-46.6587094</v>
+        <v>-46.5250225</v>
       </c>
       <c r="C94" t="s">
         <v>97</v>
@@ -2656,15 +2674,15 @@
         <v>198</v>
       </c>
       <c r="E94" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>-23.4934874</v>
+        <v>-23.5083821</v>
       </c>
       <c r="B95">
-        <v>-46.5750274</v>
+        <v>-46.4930651</v>
       </c>
       <c r="C95" t="s">
         <v>98</v>
@@ -2673,15 +2691,15 @@
         <v>198</v>
       </c>
       <c r="E95" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>-23.5357766</v>
+        <v>-23.5412964</v>
       </c>
       <c r="B96">
-        <v>-46.7736444</v>
+        <v>-46.4099326</v>
       </c>
       <c r="C96" t="s">
         <v>99</v>
@@ -2690,2064 +2708,2064 @@
         <v>198</v>
       </c>
       <c r="E96" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>-23.5340383</v>
+        <v>-23.5412964</v>
       </c>
       <c r="B97">
-        <v>-46.7833038</v>
+        <v>-46.4099326</v>
       </c>
       <c r="C97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D97" t="s">
         <v>198</v>
       </c>
       <c r="E97" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>-23.489257</v>
+        <v>-23.6006903</v>
       </c>
       <c r="B98">
-        <v>-46.7185363</v>
+        <v>-46.4844351</v>
       </c>
       <c r="C98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D98" t="s">
         <v>198</v>
       </c>
       <c r="E98" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>-23.5090513</v>
+        <v>-23.5805184</v>
       </c>
       <c r="B99">
-        <v>-46.6737712</v>
+        <v>-46.6399458</v>
       </c>
       <c r="C99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D99" t="s">
         <v>198</v>
       </c>
       <c r="E99" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>-23.4744162</v>
+        <v>-23.5739046</v>
       </c>
       <c r="B100">
-        <v>-46.670576</v>
+        <v>-46.6424439</v>
       </c>
       <c r="C100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D100" t="s">
         <v>198</v>
       </c>
       <c r="E100" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>-23.4347341</v>
+        <v>-23.6164721</v>
       </c>
       <c r="B101">
-        <v>-46.405618</v>
+        <v>-46.6179236</v>
       </c>
       <c r="C101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D101" t="s">
         <v>198</v>
       </c>
       <c r="E101" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>-23.5012691</v>
+        <v>-23.6182997</v>
       </c>
       <c r="B102">
-        <v>-46.6958522</v>
+        <v>-46.6182842</v>
       </c>
       <c r="C102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D102" t="s">
         <v>198</v>
       </c>
       <c r="E102" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>-23.5357264</v>
+        <v>-23.6125257</v>
       </c>
       <c r="B103">
-        <v>-46.5742253</v>
+        <v>-46.6673599</v>
       </c>
       <c r="C103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D103" t="s">
         <v>198</v>
       </c>
       <c r="E103" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>-23.5652668</v>
+        <v>-23.5933959</v>
       </c>
       <c r="B104">
-        <v>-46.5956924</v>
+        <v>-46.6017333</v>
       </c>
       <c r="C104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D104" t="s">
         <v>198</v>
       </c>
       <c r="E104" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>-23.5810906</v>
+        <v>-23.6377501</v>
       </c>
       <c r="B105">
-        <v>-46.5848873</v>
+        <v>-46.5940337</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D105" t="s">
         <v>198</v>
       </c>
       <c r="E105" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>-23.6014662</v>
+        <v>-23.637784</v>
       </c>
       <c r="B106">
-        <v>-46.5342972</v>
+        <v>-46.6410917</v>
       </c>
       <c r="C106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D106" t="s">
         <v>198</v>
       </c>
       <c r="E106" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>-23.5417077</v>
+        <v>-23.588038</v>
       </c>
       <c r="B107">
-        <v>-46.5766182</v>
+        <v>-46.7510425</v>
       </c>
       <c r="C107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D107" t="s">
         <v>198</v>
       </c>
       <c r="E107" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>-23.548901</v>
+        <v>-23.5292778</v>
       </c>
       <c r="B108">
-        <v>-46.5705699</v>
+        <v>-46.6389243</v>
       </c>
       <c r="C108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D108" t="s">
         <v>198</v>
       </c>
       <c r="E108" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>-23.4927409</v>
+        <v>-23.5519536</v>
       </c>
       <c r="B109">
-        <v>-46.4445206</v>
+        <v>-46.6606904</v>
       </c>
       <c r="C109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D109" t="s">
         <v>198</v>
       </c>
       <c r="E109" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>-23.5626208</v>
+        <v>-23.5520356</v>
       </c>
       <c r="B110">
-        <v>-46.5430248</v>
+        <v>-46.6605033</v>
       </c>
       <c r="C110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D110" t="s">
         <v>198</v>
       </c>
       <c r="E110" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>-23.5458794</v>
+        <v>-23.5484358</v>
       </c>
       <c r="B111">
-        <v>-46.5428382</v>
+        <v>-46.659487</v>
       </c>
       <c r="C111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D111" t="s">
         <v>198</v>
       </c>
       <c r="E111" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>-23.5415124</v>
+        <v>-23.5413031</v>
       </c>
       <c r="B112">
-        <v>-46.5235419</v>
+        <v>-46.6440579</v>
       </c>
       <c r="C112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D112" t="s">
         <v>198</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>-23.520942</v>
+        <v>-23.5541006</v>
       </c>
       <c r="B113">
-        <v>-46.545643</v>
+        <v>-46.6526293</v>
       </c>
       <c r="C113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D113" t="s">
         <v>198</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>-23.4962065</v>
+        <v>-23.5647578</v>
       </c>
       <c r="B114">
-        <v>-46.4047926</v>
+        <v>-46.6209725</v>
       </c>
       <c r="C114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D114" t="s">
         <v>198</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>-23.5387097</v>
+        <v>-23.509423</v>
       </c>
       <c r="B115">
-        <v>-46.4548355</v>
+        <v>-46.6260484</v>
       </c>
       <c r="C115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D115" t="s">
         <v>198</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>-23.5622683</v>
+        <v>-23.5721239</v>
       </c>
       <c r="B116">
-        <v>-46.5037973</v>
+        <v>-46.689765</v>
       </c>
       <c r="C116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D116" t="s">
         <v>198</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>-23.5212619</v>
+        <v>-23.5044623</v>
       </c>
       <c r="B117">
-        <v>-46.528483</v>
+        <v>-46.6243259</v>
       </c>
       <c r="C117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D117" t="s">
         <v>198</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>-23.5305035</v>
+        <v>-23.5159541</v>
       </c>
       <c r="B118">
-        <v>-46.4740911</v>
+        <v>-46.5876006</v>
       </c>
       <c r="C118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D118" t="s">
         <v>198</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>-23.5948399</v>
+        <v>-23.4628001</v>
       </c>
       <c r="B119">
-        <v>-46.5250225</v>
+        <v>-46.5320736</v>
       </c>
       <c r="C119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D119" t="s">
         <v>198</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>-23.5083821</v>
+        <v>-23.4571084</v>
       </c>
       <c r="B120">
-        <v>-46.4930651</v>
+        <v>-46.5651325</v>
       </c>
       <c r="C120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D120" t="s">
         <v>198</v>
       </c>
       <c r="E120" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>-23.5428803</v>
+        <v>-23.4668515</v>
       </c>
       <c r="B121">
-        <v>-46.4109962</v>
+        <v>-46.5840526</v>
       </c>
       <c r="C121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D121" t="s">
         <v>198</v>
       </c>
       <c r="E121" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>-23.6006903</v>
+        <v>-23.4780289</v>
       </c>
       <c r="B122">
-        <v>-46.4844351</v>
+        <v>-46.6061224</v>
       </c>
       <c r="C122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D122" t="s">
         <v>198</v>
       </c>
       <c r="E122" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>-23.5805184</v>
+        <v>-23.4548602</v>
       </c>
       <c r="B123">
-        <v>-46.6399458</v>
+        <v>-46.5336765</v>
       </c>
       <c r="C123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D123" t="s">
         <v>198</v>
       </c>
       <c r="E123" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>-23.5739046</v>
+        <v>-23.5727766</v>
       </c>
       <c r="B124">
-        <v>-46.6424439</v>
+        <v>-46.7079282</v>
       </c>
       <c r="C124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D124" t="s">
         <v>198</v>
       </c>
       <c r="E124" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>-23.6164721</v>
+        <v>-23.59909</v>
       </c>
       <c r="B125">
-        <v>-46.6179236</v>
+        <v>-46.6372072</v>
       </c>
       <c r="C125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D125" t="s">
         <v>198</v>
       </c>
       <c r="E125" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>-23.6182997</v>
+        <v>-23.5904264</v>
       </c>
       <c r="B126">
-        <v>-46.6182842</v>
+        <v>-46.6745894</v>
       </c>
       <c r="C126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D126" t="s">
         <v>198</v>
       </c>
       <c r="E126" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>-23.6125257</v>
+        <v>-23.5255396</v>
       </c>
       <c r="B127">
-        <v>-46.6673599</v>
+        <v>-46.7087048</v>
       </c>
       <c r="C127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D127" t="s">
         <v>198</v>
       </c>
       <c r="E127" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>-23.5933959</v>
+        <v>-23.5100796</v>
       </c>
       <c r="B128">
-        <v>-46.6017333</v>
+        <v>-46.6587094</v>
       </c>
       <c r="C128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D128" t="s">
         <v>198</v>
       </c>
       <c r="E128" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>-23.6377501</v>
+        <v>-23.4934874</v>
       </c>
       <c r="B129">
-        <v>-46.5940337</v>
+        <v>-46.5750274</v>
       </c>
       <c r="C129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D129" t="s">
         <v>198</v>
       </c>
       <c r="E129" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>-23.637784</v>
+        <v>-23.5357766</v>
       </c>
       <c r="B130">
-        <v>-46.6410917</v>
+        <v>-46.7736444</v>
       </c>
       <c r="C130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D130" t="s">
         <v>198</v>
       </c>
       <c r="E130" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>-23.6444363</v>
+        <v>-23.5340383</v>
       </c>
       <c r="B131">
-        <v>-46.6421876</v>
+        <v>-46.7833038</v>
       </c>
       <c r="C131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D131" t="s">
         <v>198</v>
       </c>
       <c r="E131" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>-23.6477383</v>
+        <v>-23.489257</v>
       </c>
       <c r="B132">
-        <v>-46.6622636</v>
+        <v>-46.7185363</v>
       </c>
       <c r="C132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D132" t="s">
         <v>198</v>
       </c>
       <c r="E132" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
-        <v>-23.6735207</v>
+        <v>-23.5090513</v>
       </c>
       <c r="B133">
-        <v>-46.6862525</v>
+        <v>-46.6737712</v>
       </c>
       <c r="C133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D133" t="s">
         <v>198</v>
       </c>
       <c r="E133" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134">
-        <v>-23.6316846</v>
+        <v>-23.4347341</v>
       </c>
       <c r="B134">
-        <v>-46.6919838</v>
+        <v>-46.405618</v>
       </c>
       <c r="C134" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="D134" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E134" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
-        <v>-23.4571084</v>
+        <v>-23.4548602</v>
       </c>
       <c r="B135">
-        <v>-46.5651325</v>
+        <v>-46.5336765</v>
       </c>
       <c r="C135" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="D135" t="s">
         <v>199</v>
       </c>
       <c r="E135" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136">
-        <v>-23.4548602</v>
+        <v>-23.4571084</v>
       </c>
       <c r="B136">
-        <v>-46.5336765</v>
+        <v>-46.5651325</v>
       </c>
       <c r="C136" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="D136" t="s">
         <v>199</v>
       </c>
       <c r="E136" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137">
-        <v>-23.4347341</v>
+        <v>-23.4628001</v>
       </c>
       <c r="B137">
-        <v>-46.405618</v>
+        <v>-46.5320736</v>
       </c>
       <c r="C137" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D137" t="s">
         <v>199</v>
       </c>
       <c r="E137" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>-23.4628001</v>
+        <v>-23.5352946</v>
       </c>
       <c r="B138">
-        <v>-46.5320736</v>
+        <v>-46.7736034</v>
       </c>
       <c r="C138" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D138" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E138" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>-23.5357766</v>
+        <v>-23.5340383</v>
       </c>
       <c r="B139">
-        <v>-46.7736444</v>
+        <v>-46.7833038</v>
       </c>
       <c r="C139" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D139" t="s">
         <v>200</v>
       </c>
       <c r="E139" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>-23.5340383</v>
+        <v>-23.5357766</v>
       </c>
       <c r="B140">
-        <v>-46.7833038</v>
+        <v>-46.7736444</v>
       </c>
       <c r="C140" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D140" t="s">
         <v>200</v>
       </c>
       <c r="E140" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>-23.5352946</v>
+        <v>-23.7232218</v>
       </c>
       <c r="B141">
-        <v>-46.7736034</v>
+        <v>-46.543195</v>
       </c>
       <c r="C141" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D141" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E141" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>-23.7232218</v>
+        <v>-23.6162723</v>
       </c>
       <c r="B142">
-        <v>-46.543195</v>
+        <v>-46.5598405</v>
       </c>
       <c r="C142" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D142" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E142" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>-23.6162723</v>
+        <v>-23.5904264</v>
       </c>
       <c r="B143">
-        <v>-46.5598405</v>
+        <v>-46.6745894</v>
       </c>
       <c r="C143" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="D143" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E143" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>-23.5417077</v>
+        <v>-23.5255396</v>
       </c>
       <c r="B144">
-        <v>-46.5766182</v>
+        <v>-46.7087048</v>
       </c>
       <c r="C144" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="D144" t="s">
         <v>203</v>
       </c>
       <c r="E144" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>-23.548901</v>
+        <v>-23.5100796</v>
       </c>
       <c r="B145">
-        <v>-46.5705699</v>
+        <v>-46.6587094</v>
       </c>
       <c r="C145" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="D145" t="s">
         <v>203</v>
       </c>
       <c r="E145" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>-23.4927409</v>
+        <v>-23.4934874</v>
       </c>
       <c r="B146">
-        <v>-46.4445206</v>
+        <v>-46.5750274</v>
       </c>
       <c r="C146" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D146" t="s">
         <v>203</v>
       </c>
       <c r="E146" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147">
-        <v>-23.5626208</v>
+        <v>-23.489257</v>
       </c>
       <c r="B147">
-        <v>-46.5430248</v>
+        <v>-46.7185363</v>
       </c>
       <c r="C147" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D147" t="s">
         <v>203</v>
       </c>
       <c r="E147" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
-        <v>-23.5458794</v>
+        <v>-23.5090513</v>
       </c>
       <c r="B148">
-        <v>-46.5428382</v>
+        <v>-46.6737712</v>
       </c>
       <c r="C148" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D148" t="s">
         <v>203</v>
       </c>
       <c r="E148" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>-23.5415124</v>
+        <v>-23.4744162</v>
       </c>
       <c r="B149">
-        <v>-46.5235419</v>
+        <v>-46.670576</v>
       </c>
       <c r="C149" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="D149" t="s">
         <v>203</v>
       </c>
       <c r="E149" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>-23.520942</v>
+        <v>-23.6444363</v>
       </c>
       <c r="B150">
-        <v>-46.545643</v>
+        <v>-46.6421876</v>
       </c>
       <c r="C150" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="D150" t="s">
         <v>203</v>
       </c>
       <c r="E150" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>-23.4962065</v>
+        <v>-23.6477383</v>
       </c>
       <c r="B151">
-        <v>-46.4047926</v>
+        <v>-46.6622636</v>
       </c>
       <c r="C151" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="D151" t="s">
         <v>203</v>
       </c>
       <c r="E151" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>-23.5387097</v>
+        <v>-23.6735207</v>
       </c>
       <c r="B152">
-        <v>-46.4548355</v>
+        <v>-46.6862525</v>
       </c>
       <c r="C152" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="D152" t="s">
         <v>203</v>
       </c>
       <c r="E152" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>-23.5622683</v>
+        <v>-23.6316846</v>
       </c>
       <c r="B153">
-        <v>-46.5037973</v>
+        <v>-46.6919838</v>
       </c>
       <c r="C153" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="D153" t="s">
         <v>203</v>
       </c>
       <c r="E153" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <v>-23.5212619</v>
+        <v>-23.655148</v>
       </c>
       <c r="B154">
-        <v>-46.528483</v>
+        <v>-46.7023442</v>
       </c>
       <c r="C154" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="D154" t="s">
         <v>203</v>
       </c>
       <c r="E154" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>-23.5305035</v>
+        <v>-23.6341601</v>
       </c>
       <c r="B155">
-        <v>-46.4740911</v>
+        <v>-46.6928804</v>
       </c>
       <c r="C155" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="D155" t="s">
         <v>203</v>
       </c>
       <c r="E155" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156">
-        <v>-23.5948399</v>
+        <v>-23.6461831</v>
       </c>
       <c r="B156">
-        <v>-46.5250225</v>
+        <v>-46.7070045</v>
       </c>
       <c r="C156" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="D156" t="s">
         <v>203</v>
       </c>
       <c r="E156" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
-        <v>-23.5083821</v>
+        <v>-23.6738558</v>
       </c>
       <c r="B157">
-        <v>-46.4930651</v>
+        <v>-46.6775125</v>
       </c>
       <c r="C157" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="D157" t="s">
         <v>203</v>
       </c>
       <c r="E157" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <v>-23.5428803</v>
+        <v>-23.6664271</v>
       </c>
       <c r="B158">
-        <v>-46.4109962</v>
+        <v>-46.7121309</v>
       </c>
       <c r="C158" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="D158" t="s">
         <v>203</v>
       </c>
       <c r="E158" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>-23.6006903</v>
+        <v>-23.7099478</v>
       </c>
       <c r="B159">
-        <v>-46.4844351</v>
+        <v>-46.699853</v>
       </c>
       <c r="C159" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="D159" t="s">
         <v>203</v>
       </c>
       <c r="E159" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
-        <v>-23.5805184</v>
+        <v>-23.6737036</v>
       </c>
       <c r="B160">
-        <v>-46.6399458</v>
+        <v>-46.7456712</v>
       </c>
       <c r="C160" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="D160" t="s">
         <v>203</v>
       </c>
       <c r="E160" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161">
-        <v>-23.5739046</v>
+        <v>-23.5235294</v>
       </c>
       <c r="B161">
-        <v>-46.6424439</v>
+        <v>-46.7001738</v>
       </c>
       <c r="C161" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="D161" t="s">
         <v>203</v>
       </c>
       <c r="E161" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162">
-        <v>-23.6182997</v>
+        <v>-23.5260299</v>
       </c>
       <c r="B162">
-        <v>-46.6182842</v>
+        <v>-46.7082896</v>
       </c>
       <c r="C162" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="D162" t="s">
         <v>203</v>
       </c>
       <c r="E162" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163">
-        <v>-23.6125257</v>
+        <v>-23.4057936</v>
       </c>
       <c r="B163">
-        <v>-46.6673599</v>
+        <v>-46.7583156</v>
       </c>
       <c r="C163" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="D163" t="s">
         <v>203</v>
       </c>
       <c r="E163" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164">
-        <v>-23.5933959</v>
+        <v>-23.5344698</v>
       </c>
       <c r="B164">
-        <v>-46.6017333</v>
+        <v>-46.7278267</v>
       </c>
       <c r="C164" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="D164" t="s">
         <v>203</v>
       </c>
       <c r="E164" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165">
-        <v>-23.6377501</v>
+        <v>-23.5834142</v>
       </c>
       <c r="B165">
-        <v>-46.5940337</v>
+        <v>-46.7146841</v>
       </c>
       <c r="C165" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="D165" t="s">
         <v>203</v>
       </c>
       <c r="E165" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166">
-        <v>-23.637784</v>
+        <v>-23.5690226</v>
       </c>
       <c r="B166">
-        <v>-46.6410917</v>
+        <v>-46.7566166</v>
       </c>
       <c r="C166" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="D166" t="s">
         <v>203</v>
       </c>
       <c r="E166" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167">
-        <v>-23.6444363</v>
+        <v>-23.5632493</v>
       </c>
       <c r="B167">
-        <v>-46.6421876</v>
+        <v>-46.6873681</v>
       </c>
       <c r="C167" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="D167" t="s">
         <v>203</v>
       </c>
       <c r="E167" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168">
-        <v>-23.6477383</v>
+        <v>-23.666006</v>
       </c>
       <c r="B168">
-        <v>-46.6622636</v>
+        <v>-46.7707319</v>
       </c>
       <c r="C168" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="D168" t="s">
         <v>203</v>
       </c>
       <c r="E168" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169">
-        <v>-23.6735207</v>
+        <v>-23.6501566</v>
       </c>
       <c r="B169">
-        <v>-46.6862525</v>
+        <v>-46.7558405</v>
       </c>
       <c r="C169" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D169" t="s">
         <v>203</v>
       </c>
       <c r="E169" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170">
-        <v>-23.6316846</v>
+        <v>-23.5012691</v>
       </c>
       <c r="B170">
-        <v>-46.6919838</v>
+        <v>-46.6958522</v>
       </c>
       <c r="C170" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="D170" t="s">
         <v>203</v>
       </c>
       <c r="E170" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171">
-        <v>-23.655148</v>
+        <v>-23.5357264</v>
       </c>
       <c r="B171">
-        <v>-46.7023442</v>
+        <v>-46.5742253</v>
       </c>
       <c r="C171" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D171" t="s">
         <v>203</v>
       </c>
       <c r="E171" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172">
-        <v>-23.6341601</v>
+        <v>-23.5652668</v>
       </c>
       <c r="B172">
-        <v>-46.6928804</v>
+        <v>-46.5956924</v>
       </c>
       <c r="C172" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D172" t="s">
         <v>203</v>
       </c>
       <c r="E172" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>-23.6461831</v>
+        <v>-23.5810906</v>
       </c>
       <c r="B173">
-        <v>-46.7070045</v>
+        <v>-46.5848873</v>
       </c>
       <c r="C173" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="D173" t="s">
         <v>203</v>
       </c>
       <c r="E173" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174">
-        <v>-23.6738558</v>
+        <v>-23.6014662</v>
       </c>
       <c r="B174">
-        <v>-46.6775125</v>
+        <v>-46.5342972</v>
       </c>
       <c r="C174" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D174" t="s">
         <v>203</v>
       </c>
       <c r="E174" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175">
-        <v>-23.6664271</v>
+        <v>-23.5417077</v>
       </c>
       <c r="B175">
-        <v>-46.7121309</v>
+        <v>-46.5766182</v>
       </c>
       <c r="C175" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D175" t="s">
         <v>203</v>
       </c>
       <c r="E175" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>-23.7099478</v>
+        <v>-23.548901</v>
       </c>
       <c r="B176">
-        <v>-46.699853</v>
+        <v>-46.5705699</v>
       </c>
       <c r="C176" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D176" t="s">
         <v>203</v>
       </c>
       <c r="E176" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>-23.6737036</v>
+        <v>-23.4927409</v>
       </c>
       <c r="B177">
-        <v>-46.7456712</v>
+        <v>-46.4445206</v>
       </c>
       <c r="C177" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D177" t="s">
         <v>203</v>
       </c>
       <c r="E177" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178">
-        <v>-23.5235294</v>
+        <v>-23.5626208</v>
       </c>
       <c r="B178">
-        <v>-46.7001738</v>
+        <v>-46.5430248</v>
       </c>
       <c r="C178" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D178" t="s">
         <v>203</v>
       </c>
       <c r="E178" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <v>-23.5260299</v>
+        <v>-23.5458794</v>
       </c>
       <c r="B179">
-        <v>-46.7082896</v>
+        <v>-46.5428382</v>
       </c>
       <c r="C179" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D179" t="s">
         <v>203</v>
       </c>
       <c r="E179" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <v>-23.4057936</v>
+        <v>-23.5415124</v>
       </c>
       <c r="B180">
-        <v>-46.7583156</v>
+        <v>-46.5235419</v>
       </c>
       <c r="C180" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D180" t="s">
         <v>203</v>
       </c>
       <c r="E180" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181">
-        <v>-23.5344698</v>
+        <v>-23.520942</v>
       </c>
       <c r="B181">
-        <v>-46.7278267</v>
+        <v>-46.545643</v>
       </c>
       <c r="C181" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D181" t="s">
         <v>203</v>
       </c>
       <c r="E181" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>-23.5834142</v>
+        <v>-23.4962065</v>
       </c>
       <c r="B182">
-        <v>-46.7146841</v>
+        <v>-46.4047926</v>
       </c>
       <c r="C182" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D182" t="s">
         <v>203</v>
       </c>
       <c r="E182" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
-        <v>-23.5690226</v>
+        <v>-23.5387097</v>
       </c>
       <c r="B183">
-        <v>-46.7566166</v>
+        <v>-46.4548355</v>
       </c>
       <c r="C183" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D183" t="s">
         <v>203</v>
       </c>
       <c r="E183" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>-23.5632493</v>
+        <v>-23.5622683</v>
       </c>
       <c r="B184">
-        <v>-46.6873681</v>
+        <v>-46.5037973</v>
       </c>
       <c r="C184" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D184" t="s">
         <v>203</v>
       </c>
       <c r="E184" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
-        <v>-23.666006</v>
+        <v>-23.5212619</v>
       </c>
       <c r="B185">
-        <v>-46.7707319</v>
+        <v>-46.528483</v>
       </c>
       <c r="C185" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D185" t="s">
         <v>203</v>
       </c>
       <c r="E185" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <v>-23.6501566</v>
+        <v>-23.5305035</v>
       </c>
       <c r="B186">
-        <v>-46.7558405</v>
+        <v>-46.4740911</v>
       </c>
       <c r="C186" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D186" t="s">
         <v>203</v>
       </c>
       <c r="E186" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>-23.588038</v>
+        <v>-23.5948399</v>
       </c>
       <c r="B187">
-        <v>-46.7510425</v>
+        <v>-46.5250225</v>
       </c>
       <c r="C187" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D187" t="s">
         <v>203</v>
       </c>
       <c r="E187" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188">
-        <v>-23.5292778</v>
+        <v>-23.5083821</v>
       </c>
       <c r="B188">
-        <v>-46.6389243</v>
+        <v>-46.4930651</v>
       </c>
       <c r="C188" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D188" t="s">
         <v>203</v>
       </c>
       <c r="E188" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>-23.5519536</v>
+        <v>-23.5428803</v>
       </c>
       <c r="B189">
-        <v>-46.6606904</v>
+        <v>-46.4109962</v>
       </c>
       <c r="C189" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="D189" t="s">
         <v>203</v>
       </c>
       <c r="E189" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190">
-        <v>-23.5520356</v>
+        <v>-23.6006903</v>
       </c>
       <c r="B190">
-        <v>-46.6605033</v>
+        <v>-46.4844351</v>
       </c>
       <c r="C190" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D190" t="s">
         <v>203</v>
       </c>
       <c r="E190" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191">
-        <v>-23.5484358</v>
+        <v>-23.5805184</v>
       </c>
       <c r="B191">
-        <v>-46.659487</v>
+        <v>-46.6399458</v>
       </c>
       <c r="C191" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D191" t="s">
         <v>203</v>
       </c>
       <c r="E191" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
-        <v>-23.5413031</v>
+        <v>-23.5739046</v>
       </c>
       <c r="B192">
-        <v>-46.6440579</v>
+        <v>-46.6424439</v>
       </c>
       <c r="C192" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D192" t="s">
         <v>203</v>
       </c>
       <c r="E192" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>-23.5541006</v>
+        <v>-23.6182997</v>
       </c>
       <c r="B193">
-        <v>-46.6526293</v>
+        <v>-46.6182842</v>
       </c>
       <c r="C193" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D193" t="s">
         <v>203</v>
       </c>
       <c r="E193" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
-        <v>-23.5647578</v>
+        <v>-23.6125257</v>
       </c>
       <c r="B194">
-        <v>-46.6209725</v>
+        <v>-46.6673599</v>
       </c>
       <c r="C194" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D194" t="s">
         <v>203</v>
       </c>
       <c r="E194" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195">
-        <v>-23.509423</v>
+        <v>-23.5933959</v>
       </c>
       <c r="B195">
-        <v>-46.6260484</v>
+        <v>-46.6017333</v>
       </c>
       <c r="C195" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D195" t="s">
         <v>203</v>
       </c>
       <c r="E195" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196">
-        <v>-23.5721239</v>
+        <v>-23.6377501</v>
       </c>
       <c r="B196">
-        <v>-46.689765</v>
+        <v>-46.5940337</v>
       </c>
       <c r="C196" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="D196" t="s">
         <v>203</v>
       </c>
       <c r="E196" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197">
-        <v>-23.5044623</v>
+        <v>-23.637784</v>
       </c>
       <c r="B197">
-        <v>-46.6243259</v>
+        <v>-46.6410917</v>
       </c>
       <c r="C197" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D197" t="s">
         <v>203</v>
       </c>
       <c r="E197" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
-        <v>-23.5159541</v>
+        <v>-23.588038</v>
       </c>
       <c r="B198">
-        <v>-46.5876006</v>
+        <v>-46.7510425</v>
       </c>
       <c r="C198" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D198" t="s">
         <v>203</v>
       </c>
       <c r="E198" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199">
-        <v>-23.4668515</v>
+        <v>-23.5292778</v>
       </c>
       <c r="B199">
-        <v>-46.5840526</v>
+        <v>-46.6389243</v>
       </c>
       <c r="C199" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D199" t="s">
         <v>203</v>
       </c>
       <c r="E199" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200">
-        <v>-23.4780289</v>
+        <v>-23.5519536</v>
       </c>
       <c r="B200">
-        <v>-46.6061224</v>
+        <v>-46.6606904</v>
       </c>
       <c r="C200" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D200" t="s">
         <v>203</v>
       </c>
       <c r="E200" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201">
-        <v>-23.5727766</v>
+        <v>-23.5520356</v>
       </c>
       <c r="B201">
-        <v>-46.7079282</v>
+        <v>-46.6605033</v>
       </c>
       <c r="C201" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D201" t="s">
         <v>203</v>
       </c>
       <c r="E201" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202">
-        <v>-23.59909</v>
+        <v>-23.5484358</v>
       </c>
       <c r="B202">
-        <v>-46.6372072</v>
+        <v>-46.659487</v>
       </c>
       <c r="C202" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D202" t="s">
         <v>203</v>
       </c>
       <c r="E202" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
-        <v>-23.5904264</v>
+        <v>-23.5413031</v>
       </c>
       <c r="B203">
-        <v>-46.6745894</v>
+        <v>-46.6440579</v>
       </c>
       <c r="C203" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D203" t="s">
         <v>203</v>
       </c>
       <c r="E203" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204">
-        <v>-23.5255396</v>
+        <v>-23.5541006</v>
       </c>
       <c r="B204">
-        <v>-46.7087048</v>
+        <v>-46.6526293</v>
       </c>
       <c r="C204" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D204" t="s">
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205">
-        <v>-23.5100796</v>
+        <v>-23.5647578</v>
       </c>
       <c r="B205">
-        <v>-46.6587094</v>
+        <v>-46.6209725</v>
       </c>
       <c r="C205" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D205" t="s">
         <v>203</v>
       </c>
       <c r="E205" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206">
-        <v>-23.4934874</v>
+        <v>-23.509423</v>
       </c>
       <c r="B206">
-        <v>-46.5750274</v>
+        <v>-46.6260484</v>
       </c>
       <c r="C206" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D206" t="s">
         <v>203</v>
       </c>
       <c r="E206" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207">
-        <v>-23.489257</v>
+        <v>-23.5721239</v>
       </c>
       <c r="B207">
-        <v>-46.7185363</v>
+        <v>-46.689765</v>
       </c>
       <c r="C207" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D207" t="s">
         <v>203</v>
       </c>
       <c r="E207" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208">
-        <v>-23.5090513</v>
+        <v>-23.5044623</v>
       </c>
       <c r="B208">
-        <v>-46.6737712</v>
+        <v>-46.6243259</v>
       </c>
       <c r="C208" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D208" t="s">
         <v>203</v>
       </c>
       <c r="E208" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209">
-        <v>-23.4744162</v>
+        <v>-23.5159541</v>
       </c>
       <c r="B209">
-        <v>-46.670576</v>
+        <v>-46.5876006</v>
       </c>
       <c r="C209" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D209" t="s">
         <v>203</v>
       </c>
       <c r="E209" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210">
-        <v>-23.5012691</v>
+        <v>-23.4668515</v>
       </c>
       <c r="B210">
-        <v>-46.6958522</v>
+        <v>-46.5840526</v>
       </c>
       <c r="C210" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D210" t="s">
         <v>203</v>
       </c>
       <c r="E210" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211">
-        <v>-23.5357264</v>
+        <v>-23.4780289</v>
       </c>
       <c r="B211">
-        <v>-46.5742253</v>
+        <v>-46.6061224</v>
       </c>
       <c r="C211" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D211" t="s">
         <v>203</v>
       </c>
       <c r="E211" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212">
-        <v>-23.5652668</v>
+        <v>-23.5727766</v>
       </c>
       <c r="B212">
-        <v>-46.5956924</v>
+        <v>-46.7079282</v>
       </c>
       <c r="C212" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D212" t="s">
         <v>203</v>
       </c>
       <c r="E212" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213">
-        <v>-23.5810906</v>
+        <v>-23.59909</v>
       </c>
       <c r="B213">
-        <v>-46.5848873</v>
+        <v>-46.6372072</v>
       </c>
       <c r="C213" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D213" t="s">
         <v>203</v>
       </c>
       <c r="E213" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214">
-        <v>-23.6014662</v>
+        <v>-23.6141617</v>
       </c>
       <c r="B214">
-        <v>-46.5342972</v>
+        <v>-46.7760983</v>
       </c>
       <c r="C214" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D214" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E214" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215">
-        <v>-23.5407895</v>
+        <v>-23.5945649</v>
       </c>
       <c r="B215">
-        <v>-46.5650605</v>
+        <v>-46.6875246</v>
       </c>
       <c r="C215" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D215" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E215" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
-        <v>-23.5945649</v>
+        <v>-23.5520577</v>
       </c>
       <c r="B216">
-        <v>-46.6875246</v>
+        <v>-46.6525766</v>
       </c>
       <c r="C216" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D216" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E216" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217">
-        <v>-23.5520577</v>
+        <v>-23.5407895</v>
       </c>
       <c r="B217">
-        <v>-46.6525766</v>
+        <v>-46.5650605</v>
       </c>
       <c r="C217" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D217" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E217" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4758,13 +4776,13 @@
         <v>-46.6770774</v>
       </c>
       <c r="C218" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D218" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E218" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4775,13 +4793,13 @@
         <v>-46.5276202</v>
       </c>
       <c r="C219" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D219" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E219" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4792,13 +4810,13 @@
         <v>-46.5161492</v>
       </c>
       <c r="C220" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D220" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E220" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4809,13 +4827,13 @@
         <v>-46.5624914</v>
       </c>
       <c r="C221" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D221" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E221" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4826,13 +4844,13 @@
         <v>-46.574461</v>
       </c>
       <c r="C222" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D222" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E222" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4843,64 +4861,64 @@
         <v>-46.5252317</v>
       </c>
       <c r="C223" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D223" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E223" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224">
-        <v>-23.6431136</v>
+        <v>-23.6911096</v>
       </c>
       <c r="B224">
-        <v>-46.5405089</v>
+        <v>-46.5547287</v>
       </c>
       <c r="C224" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D224" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E224" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225">
-        <v>-23.6911096</v>
+        <v>-23.6931148</v>
       </c>
       <c r="B225">
-        <v>-46.5547287</v>
+        <v>-46.5572815</v>
       </c>
       <c r="C225" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D225" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E225" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226">
-        <v>-23.6931148</v>
+        <v>-23.6431136</v>
       </c>
       <c r="B226">
-        <v>-46.5572815</v>
+        <v>-46.5405089</v>
       </c>
       <c r="C226" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D226" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E226" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4911,13 +4929,13 @@
         <v>-46.6938871</v>
       </c>
       <c r="C227" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D227" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E227" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4928,13 +4946,13 @@
         <v>-46.7084406</v>
       </c>
       <c r="C228" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D228" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E228" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4945,13 +4963,13 @@
         <v>-46.6945798</v>
       </c>
       <c r="C229" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D229" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E229" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4962,13 +4980,13 @@
         <v>-46.6109116</v>
       </c>
       <c r="C230" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D230" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E230" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4979,13 +4997,13 @@
         <v>-46.6441168</v>
       </c>
       <c r="C231" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D231" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E231" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4996,47 +5014,47 @@
         <v>-46.6381614</v>
       </c>
       <c r="C232" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D232" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E232" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233">
-        <v>-23.7169088</v>
+        <v>-23.5435024</v>
       </c>
       <c r="B233">
-        <v>-46.5764726</v>
+        <v>-46.6381614</v>
       </c>
       <c r="C233" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D233" t="s">
         <v>216</v>
       </c>
       <c r="E233" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234">
-        <v>-23.576523</v>
+        <v>-23.7169088</v>
       </c>
       <c r="B234">
-        <v>-46.6422125</v>
+        <v>-46.5764726</v>
       </c>
       <c r="C234" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D234" t="s">
         <v>217</v>
       </c>
       <c r="E234" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5047,98 +5065,217 @@
         <v>-46.6419797</v>
       </c>
       <c r="C235" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D235" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E235" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236">
-        <v>-23.5822221</v>
+        <v>-23.576523</v>
       </c>
       <c r="B236">
-        <v>-46.6411935</v>
+        <v>-46.6422125</v>
       </c>
       <c r="C236" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D236" t="s">
         <v>218</v>
       </c>
       <c r="E236" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237">
-        <v>-23.5278993</v>
+        <v>-23.5822221</v>
       </c>
       <c r="B237">
-        <v>-46.6768138</v>
+        <v>-46.6411935</v>
       </c>
       <c r="C237" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D237" t="s">
         <v>219</v>
       </c>
       <c r="E237" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238">
-        <v>-23.6536072</v>
+        <v>-23.5954834</v>
       </c>
       <c r="B238">
-        <v>-46.7204882</v>
+        <v>-46.6362184</v>
       </c>
       <c r="C238" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D238" t="s">
         <v>220</v>
       </c>
       <c r="E238" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239">
-        <v>-23.5422558</v>
+        <v>-23.5278993</v>
       </c>
       <c r="B239">
-        <v>-46.5604472</v>
+        <v>-46.6768138</v>
       </c>
       <c r="C239" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D239" t="s">
         <v>221</v>
       </c>
       <c r="E239" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240">
-        <v>-23.6953912</v>
+        <v>-23.4558664</v>
       </c>
       <c r="B240">
-        <v>-46.8137425</v>
+        <v>-46.5588031</v>
       </c>
       <c r="C240" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D240" t="s">
         <v>222</v>
       </c>
       <c r="E240" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241">
+        <v>-23.5422558</v>
+      </c>
+      <c r="B241">
+        <v>-46.5604472</v>
+      </c>
+      <c r="C241" t="s">
+        <v>162</v>
+      </c>
+      <c r="D241" t="s">
+        <v>222</v>
+      </c>
+      <c r="E241" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>-23.5678068</v>
+      </c>
+      <c r="B242">
+        <v>-46.6465508</v>
+      </c>
+      <c r="C242" t="s">
+        <v>163</v>
+      </c>
+      <c r="D242" t="s">
+        <v>223</v>
+      </c>
+      <c r="E242" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>-23.5980547</v>
+      </c>
+      <c r="B243">
+        <v>-46.6423036</v>
+      </c>
+      <c r="C243" t="s">
+        <v>164</v>
+      </c>
+      <c r="D243" t="s">
         <v>224</v>
+      </c>
+      <c r="E243" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>-23.619986</v>
+      </c>
+      <c r="B244">
+        <v>-46.639242</v>
+      </c>
+      <c r="C244" t="s">
+        <v>165</v>
+      </c>
+      <c r="D244" t="s">
+        <v>225</v>
+      </c>
+      <c r="E244" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>-23.5971602</v>
+      </c>
+      <c r="B245">
+        <v>-46.6456832</v>
+      </c>
+      <c r="C245" t="s">
+        <v>166</v>
+      </c>
+      <c r="D245" t="s">
+        <v>226</v>
+      </c>
+      <c r="E245" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>-23.4957523</v>
+      </c>
+      <c r="B246">
+        <v>-46.6257089</v>
+      </c>
+      <c r="C246" t="s">
+        <v>167</v>
+      </c>
+      <c r="D246" t="s">
+        <v>227</v>
+      </c>
+      <c r="E246" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>-23.5344153</v>
+      </c>
+      <c r="B247">
+        <v>-46.774624</v>
+      </c>
+      <c r="C247" t="s">
+        <v>168</v>
+      </c>
+      <c r="D247" t="s">
+        <v>228</v>
+      </c>
+      <c r="E247" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
